--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y116"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="R115" s="2" t="inlineStr"/>
     </row>
-    <row r="116">
+    <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
           <t>A 39620-2023</t>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7730,6 +7730,130 @@
         <v>0</v>
       </c>
       <c r="R116" s="2" t="inlineStr"/>
+    </row>
+    <row r="117" ht="15" customHeight="1">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>A 41702-2023</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" s="2" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>A 41723-2023</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y118"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7793,7 +7793,7 @@
       </c>
       <c r="R117" s="2" t="inlineStr"/>
     </row>
-    <row r="118">
+    <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
           <t>A 41723-2023</t>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7854,6 +7854,68 @@
         <v>0</v>
       </c>
       <c r="R118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>A 41952-2023</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>45178</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 4801-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 4801-2019.xlsx", "A 4801-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 4801-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 4801-2019.png", "A 4801-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 4801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 4801-2019.docx", "A 4801-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 4801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 4801-2019.docx", "A 4801-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 4801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 4801-2019.docx", "A 4801-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 4801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 4801-2019.docx", "A 4801-2019")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,27 +722,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 4794-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 4794-2019.xlsx", "A 4794-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 4794-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 4794-2019.png", "A 4794-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 4794-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 4794-2019.docx", "A 4794-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 4794-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 4794-2019.docx", "A 4794-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 4794-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 4794-2019.docx", "A 4794-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 4794-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 4794-2019.docx", "A 4794-2019")</f>
         <v/>
       </c>
     </row>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 10000-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 10000-2022.xlsx", "A 10000-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 10000-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 10000-2022.png", "A 10000-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 10000-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 10000-2022.docx", "A 10000-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 10000-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 10000-2022.docx", "A 10000-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 10000-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 10000-2022.docx", "A 10000-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 10000-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 10000-2022.docx", "A 10000-2022")</f>
         <v/>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 55163-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 55163-2018.xlsx", "A 55163-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 55163-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 55163-2018.png", "A 55163-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 55163-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 55163-2018.docx", "A 55163-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 55163-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 55163-2018.docx", "A 55163-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 55163-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 55163-2018.docx", "A 55163-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 55163-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 55163-2018.docx", "A 55163-2018")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -997,27 +997,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 11714-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 11714-2021.xlsx", "A 11714-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 11714-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 11714-2021.png", "A 11714-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 11714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 11714-2021.docx", "A 11714-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 11714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 11714-2021.docx", "A 11714-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 11714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 11714-2021.docx", "A 11714-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 11714-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 11714-2021.docx", "A 11714-2021")</f>
         <v/>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1084,27 +1084,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 64166-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 64166-2018.xlsx", "A 64166-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 64166-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 64166-2018.png", "A 64166-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 64166-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 64166-2018.docx", "A 64166-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 64166-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 64166-2018.docx", "A 64166-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 64166-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 64166-2018.docx", "A 64166-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 64166-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 64166-2018.docx", "A 64166-2018")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1171,27 +1171,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 24386-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 24386-2020.xlsx", "A 24386-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 24386-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 24386-2020.png", "A 24386-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 24386-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 24386-2020.docx", "A 24386-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 24386-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 24386-2020.docx", "A 24386-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 24386-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 24386-2020.docx", "A 24386-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 24386-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 24386-2020.docx", "A 24386-2020")</f>
         <v/>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1257,27 +1257,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 12586-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 12586-2019.xlsx", "A 12586-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 12586-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 12586-2019.png", "A 12586-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 12586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 12586-2019.docx", "A 12586-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 12586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 12586-2019.docx", "A 12586-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 12586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 12586-2019.docx", "A 12586-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 12586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 12586-2019.docx", "A 12586-2019")</f>
         <v/>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1343,27 +1343,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 20030-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 20030-2020.xlsx", "A 20030-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 20030-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 20030-2020.png", "A 20030-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 20030-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 20030-2020.docx", "A 20030-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 20030-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 20030-2020.docx", "A 20030-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 20030-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 20030-2020.docx", "A 20030-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 20030-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 20030-2020.docx", "A 20030-2020")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,27 +1429,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 34068-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 34068-2022.xlsx", "A 34068-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 34068-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 34068-2022.png", "A 34068-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 34068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 34068-2022.docx", "A 34068-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 34068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 34068-2022.docx", "A 34068-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 34068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 34068-2022.docx", "A 34068-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 34068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 34068-2022.docx", "A 34068-2022")</f>
         <v/>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1514,27 +1514,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 16461-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 16461-2021.xlsx", "A 16461-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 16461-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 16461-2021.png", "A 16461-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 16461-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 16461-2021.docx", "A 16461-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 16461-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 16461-2021.docx", "A 16461-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 16461-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 16461-2021.docx", "A 16461-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 16461-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 16461-2021.docx", "A 16461-2021")</f>
         <v/>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1599,27 +1599,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 51189-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 51189-2022.xlsx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 51189-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 51189-2022.png", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 51189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 51189-2022.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 51189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 51189-2022.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 51189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 51189-2022.docx", "A 51189-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 51189-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 51189-2022.docx", "A 51189-2022")</f>
         <v/>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1684,27 +1684,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 8149-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 8149-2023.xlsx", "A 8149-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 8149-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 8149-2023.png", "A 8149-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 8149-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 8149-2023.docx", "A 8149-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 8149-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 8149-2023.docx", "A 8149-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 8149-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 8149-2023.docx", "A 8149-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 8149-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 8149-2023.docx", "A 8149-2023")</f>
         <v/>
       </c>
     </row>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1769,27 +1769,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 38276-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 38276-2023.xlsx", "A 38276-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 38276-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 38276-2023.png", "A 38276-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 38276-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 38276-2023.docx", "A 38276-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 38276-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 38276-2023.docx", "A 38276-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 38276-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 38276-2023.docx", "A 38276-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 38276-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 38276-2023.docx", "A 38276-2023")</f>
         <v/>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1854,27 +1854,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 39613-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 39613-2023.xlsx", "A 39613-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 39613-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 39613-2023.png", "A 39613-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 39613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 39613-2023.docx", "A 39613-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 39613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 39613-2023.docx", "A 39613-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 39613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 39613-2023.docx", "A 39613-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 39613-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 39613-2023.docx", "A 39613-2023")</f>
         <v/>
       </c>
     </row>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1939,27 +1939,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 39716-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/artfynd/A 39716-2023.xlsx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 39716-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/kartor/A 39716-2023.png", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 39716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 39716-2023.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 39716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 39716-2023.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 39716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 39716-2023.docx", "A 39716-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 39716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 39716-2023.docx", "A 39716-2023")</f>
         <v/>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5728,23 +5728,23 @@
       </c>
       <c r="R82" s="2" t="inlineStr"/>
       <c r="U82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/knärot/A 12900-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/knärot/A 12900-2022.png", "A 12900-2022")</f>
         <v/>
       </c>
       <c r="V82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 12900-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomål/A 12900-2022.docx", "A 12900-2022")</f>
         <v/>
       </c>
       <c r="W82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 12900-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/klagomålsmail/A 12900-2022.docx", "A 12900-2022")</f>
         <v/>
       </c>
       <c r="X82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 12900-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsyn/A 12900-2022.docx", "A 12900-2022")</f>
         <v/>
       </c>
       <c r="Y82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 12900-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SIGTUNA/tillsynsmail/A 12900-2022.docx", "A 12900-2022")</f>
         <v/>
       </c>
     </row>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y119"/>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="R118" s="2" t="inlineStr"/>
     </row>
-    <row r="119">
+    <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
           <t>A 41952-2023</t>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7916,6 +7916,63 @@
         <v>0</v>
       </c>
       <c r="R119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>A 46757-2023</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>SIGTUNA</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45198</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45198</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45198</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45198</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt SIGTUNA.xlsx
+++ b/Översikt SIGTUNA.xlsx
@@ -572,7 +572,7 @@
         <v>43486</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43486</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         <v>44621</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>43396</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44265</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>43973</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>43942</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44791</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>44293</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
         <v>44865</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44974</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         <v>45160</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>45163</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45166</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         <v>43409</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>43410</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43447</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2201,7 +2201,7 @@
         <v>43479</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>43486</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43486</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>43500</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>43502</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>43524</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         <v>43527</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>43539</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>43566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43623</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         <v>43626</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>43626</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         <v>43648</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>43699</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         <v>43731</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
         <v>43738</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>43738</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>43755</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43767</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43801</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3346,7 +3346,7 @@
         <v>43801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         <v>43819</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43819</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43819</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         <v>43885</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         <v>43888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>43888</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43907</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
         <v>43948</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
         <v>43965</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         <v>43984</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
         <v>43999</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
         <v>44000</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>44077</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>44105</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44110</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>44140</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>44168</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>44172</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>44235</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>44263</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4563,7 +4563,7 @@
         <v>44264</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>44265</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44285</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4749,7 +4749,7 @@
         <v>44385</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>44467</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         <v>44468</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
         <v>44474</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         <v>44480</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
         <v>44497</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>44502</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
         <v>44502</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>44515</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44546</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>44557</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>44557</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44571</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44606</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>44619</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>44642</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>44642</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>44678</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5815,7 +5815,7 @@
         <v>44697</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>44749</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5929,7 +5929,7 @@
         <v>44754</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         <v>44776</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         <v>44776</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44803</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44803</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44809</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44809</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>44830</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44894</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44900</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44977</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44992</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>45020</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>45054</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>45054</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         <v>45061</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
         <v>45061</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7042,7 +7042,7 @@
         <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>45084</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         <v>45089</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7218,7 +7218,7 @@
         <v>45089</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>45089</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>45092</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>45110</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>45110</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>45110</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>45111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>45162</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>45163</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>45176</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45176</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
         <v>45177</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>45198</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
